--- a/Scraper/build_links.xlsx
+++ b/Scraper/build_links.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$L$206</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="206">
   <si>
     <t>https://zen.yandex.ru/media/id/60a9bdd6a4aad1743d7ea041/61619cf82d8ab4508d7d89f3</t>
   </si>
@@ -1000,15 +1000,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77" style="2" customWidth="1"/>
+    <col min="1" max="1" width="205.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="2">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -1267,127 +1267,127 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="B65" s="2">
         <v>0</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="B73" s="2">
         <v>0</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="B94" s="2">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2">
         <v>0</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2">
         <v>0</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2">
         <v>0</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2">
         <v>0</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2">
         <v>0</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2">
         <v>0</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B120" s="2">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="B121" s="2">
         <v>0</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B122" s="2">
         <v>0</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="B124" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="B126" s="2">
         <v>0</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="B127" s="2">
         <v>0</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B128" s="2">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B130" s="2">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B131" s="2">
         <v>0</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="B132" s="2">
         <v>0</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="B133" s="2">
         <v>0</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="B134" s="2">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="B135" s="2">
         <v>0</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="B136" s="2">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="B137" s="2">
         <v>0</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="B138" s="2">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="B139" s="2">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="B140" s="2">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="B141" s="2">
         <v>0</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="B142" s="2">
         <v>0</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
@@ -2171,15 +2171,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B144" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B145" s="2">
         <v>1</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B146" s="2">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B148" s="2">
         <v>1</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B149" s="2">
         <v>1</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B150" s="2">
         <v>1</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B151" s="2">
         <v>1</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2">
         <v>1</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2">
         <v>1</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B154" s="2">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B155" s="2">
         <v>1</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B157" s="2">
         <v>1</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2">
         <v>1</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B159" s="2">
         <v>1</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2">
         <v>1</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2">
         <v>1</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="B163" s="2">
         <v>1</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2">
         <v>1</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B165" s="2">
         <v>1</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="B166" s="2">
         <v>1</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2">
         <v>1</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>1</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="B169" s="2">
         <v>1</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="B170" s="2">
         <v>1</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="B171" s="2">
         <v>1</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="B172" s="2">
         <v>1</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B173" s="2">
         <v>1</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="B174" s="2">
         <v>1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="B175" s="2">
         <v>1</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B176" s="2">
         <v>1</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B177" s="2">
         <v>1</v>
@@ -2443,95 +2443,95 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="B178" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="B179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B180" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="B181" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="B182" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="B183" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="B184" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="B185" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="B186" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="B187" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="B188" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="B189" s="2">
         <v>1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="B190" s="2">
         <v>1</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B191" s="2">
         <v>1</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="B192" s="2">
         <v>1</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B193" s="2">
         <v>1</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B194" s="2">
         <v>1</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B195" s="2">
         <v>1</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B196" s="2">
         <v>1</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B197" s="2">
         <v>1</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B198" s="2">
         <v>1</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B199" s="2">
         <v>1</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B200" s="2">
         <v>1</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B201" s="2">
         <v>1</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B202" s="2">
         <v>1</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B203" s="2">
         <v>1</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B204" s="2">
         <v>1</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="B205" s="2">
         <v>1</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B206" s="2">
         <v>1</v>
@@ -2675,194 +2675,45 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="B207" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>81</v>
+      <c r="A208" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B208" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>86</v>
+      <c r="A209" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B209" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>91</v>
+      <c r="A210" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B210" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B211" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B212" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B213" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B214" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B215" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B216" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B217" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B218" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B219" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B220" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B221" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B222" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B223" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B224" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B225" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B226" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B227" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B228" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B229" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L221"/>
+  <autoFilter ref="A1:L206"/>
   <hyperlinks>
-    <hyperlink ref="A228" r:id="rId1"/>
+    <hyperlink ref="A209" r:id="rId1"/>
+    <hyperlink ref="A208" r:id="rId2"/>
+    <hyperlink ref="A210" r:id="rId3"/>
+    <hyperlink ref="A11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>